--- a/src/test/resources/automationCucumber.xlsx
+++ b/src/test/resources/automationCucumber.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A0537A-3146-4482-8F75-50676A959C77}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{041ED2B0-4BBB-4D65-9185-147348091291}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1155" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="userInfo" sheetId="1" r:id="rId1"/>
+    <sheet name="userInfo2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>First Name</t>
   </si>
@@ -46,6 +47,27 @@
   </si>
   <si>
     <t>Yazıcıoğlu</t>
+  </si>
+  <si>
+    <t>Osman</t>
+  </si>
+  <si>
+    <t>Karaoğlu</t>
+  </si>
+  <si>
+    <t>Ezgi</t>
+  </si>
+  <si>
+    <t>Aslan</t>
+  </si>
+  <si>
+    <t>Engin</t>
+  </si>
+  <si>
+    <t>Arık</t>
+  </si>
+  <si>
+    <t>06125</t>
   </si>
 </sst>
 </file>
@@ -81,8 +103,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -366,7 +389,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -392,7 +415,7 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>34520</v>
       </c>
     </row>
@@ -403,11 +426,75 @@
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>35622</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F9EB14E-7225-40D2-BEE9-46791E455E90}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="17.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1">
+        <v>11255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1">
+        <v>55210</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>